--- a/natmiOut/OldD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H2">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I2">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J2">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>25.38735559051059</v>
+        <v>32.278463753282</v>
       </c>
       <c r="R2">
-        <v>25.38735559051059</v>
+        <v>290.506173779538</v>
       </c>
       <c r="S2">
-        <v>0.04655148058286553</v>
+        <v>0.05135407584111021</v>
       </c>
       <c r="T2">
-        <v>0.04655148058286553</v>
+        <v>0.05135407584111022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H3">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I3">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J3">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>127.8043395992856</v>
+        <v>131.3867239308966</v>
       </c>
       <c r="R3">
-        <v>127.8043395992856</v>
+        <v>1182.48051537807</v>
       </c>
       <c r="S3">
-        <v>0.2343482058243957</v>
+        <v>0.2090323702154577</v>
       </c>
       <c r="T3">
-        <v>0.2343482058243957</v>
+        <v>0.2090323702154578</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H4">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I4">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J4">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>130.4270467959588</v>
+        <v>152.9170561982467</v>
       </c>
       <c r="R4">
-        <v>130.4270467959588</v>
+        <v>1376.25350578422</v>
       </c>
       <c r="S4">
-        <v>0.2391573283304873</v>
+        <v>0.2432864885214868</v>
       </c>
       <c r="T4">
-        <v>0.2391573283304873</v>
+        <v>0.2432864885214869</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.34290170606134</v>
+        <v>2.401444666666666</v>
       </c>
       <c r="H5">
-        <v>2.34290170606134</v>
+        <v>7.204333999999999</v>
       </c>
       <c r="I5">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="J5">
-        <v>0.5906449170553904</v>
+        <v>0.5723125574599716</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>38.49587927361875</v>
+        <v>43.14324701486044</v>
       </c>
       <c r="R5">
-        <v>38.49587927361875</v>
+        <v>388.289223133744</v>
       </c>
       <c r="S5">
-        <v>0.07058790231764181</v>
+        <v>0.06863962288191672</v>
       </c>
       <c r="T5">
-        <v>0.07058790231764181</v>
+        <v>0.06863962288191673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H6">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I6">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J6">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>9.522704354985962</v>
+        <v>13.175615759484</v>
       </c>
       <c r="R6">
-        <v>9.522704354985962</v>
+        <v>118.580541835356</v>
       </c>
       <c r="S6">
-        <v>0.0174612903379033</v>
+        <v>0.02096201281875043</v>
       </c>
       <c r="T6">
-        <v>0.0174612903379033</v>
+        <v>0.02096201281875043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H7">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I7">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J7">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>47.93894097986063</v>
+        <v>53.63021622226</v>
       </c>
       <c r="R7">
-        <v>47.93894097986063</v>
+        <v>482.67194600034</v>
       </c>
       <c r="S7">
-        <v>0.08790315605069432</v>
+        <v>0.08532407899905228</v>
       </c>
       <c r="T7">
-        <v>0.08790315605069432</v>
+        <v>0.0853240789990523</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H8">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I8">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J8">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>48.92270886992588</v>
+        <v>62.41859559796001</v>
       </c>
       <c r="R8">
-        <v>48.92270886992588</v>
+        <v>561.7673603816401</v>
       </c>
       <c r="S8">
-        <v>0.08970704033746647</v>
+        <v>0.09930612921153359</v>
       </c>
       <c r="T8">
-        <v>0.08970704033746647</v>
+        <v>0.0993061292115336</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.878813872522973</v>
+        <v>0.9802360000000001</v>
       </c>
       <c r="H9">
-        <v>0.878813872522973</v>
+        <v>2.940708</v>
       </c>
       <c r="I9">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="J9">
-        <v>0.2215487510639373</v>
+        <v>0.2336099514851752</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>14.43966370979288</v>
+        <v>17.61046776045867</v>
       </c>
       <c r="R9">
-        <v>14.43966370979288</v>
+        <v>158.494209844128</v>
       </c>
       <c r="S9">
-        <v>0.02647726433787318</v>
+        <v>0.02801773045583889</v>
       </c>
       <c r="T9">
-        <v>0.02647726433787318</v>
+        <v>0.02801773045583889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H10">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I10">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J10">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>8.072373082247218</v>
+        <v>10.945982538187</v>
       </c>
       <c r="R10">
-        <v>8.072373082247218</v>
+        <v>98.51384284368301</v>
       </c>
       <c r="S10">
-        <v>0.01480189291303498</v>
+        <v>0.01741473267495167</v>
       </c>
       <c r="T10">
-        <v>0.01480189291303498</v>
+        <v>0.01741473267495168</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>20</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H11">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I11">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J11">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>40.63772247162613</v>
+        <v>44.55468503363834</v>
       </c>
       <c r="R11">
-        <v>40.63772247162613</v>
+        <v>400.992165302745</v>
       </c>
       <c r="S11">
-        <v>0.0745152893859055</v>
+        <v>0.07088517879236417</v>
       </c>
       <c r="T11">
-        <v>0.0745152893859055</v>
+        <v>0.07088517879236418</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>21</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H12">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I12">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J12">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>41.47166009469052</v>
+        <v>51.85585781686333</v>
       </c>
       <c r="R12">
-        <v>41.47166009469052</v>
+        <v>466.70272035177</v>
       </c>
       <c r="S12">
-        <v>0.07604443766324376</v>
+        <v>0.08250112754707102</v>
       </c>
       <c r="T12">
-        <v>0.07604443766324376</v>
+        <v>0.08250112754707103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7449683602899529</v>
+        <v>0.8143563333333333</v>
       </c>
       <c r="H13">
-        <v>0.7449683602899529</v>
+        <v>2.443069</v>
       </c>
       <c r="I13">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="J13">
-        <v>0.1878063318806723</v>
+        <v>0.1940774910548533</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>12.24046744521723</v>
+        <v>14.63035019494489</v>
       </c>
       <c r="R13">
-        <v>12.24046744521723</v>
+        <v>131.673151754504</v>
       </c>
       <c r="S13">
-        <v>0.02244471191848807</v>
+        <v>0.02327645204046639</v>
       </c>
       <c r="T13">
-        <v>0.02244471191848807</v>
+        <v>0.0232764520404664</v>
       </c>
     </row>
   </sheetData>
